--- a/src/main/resource/resource/I18NResource.xlsx
+++ b/src/main/resource/resource/I18NResource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8067555E-37E0-477E-AD08-0E019BD0E364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE7EDF3-18DC-487B-A22E-475FC4E3B0A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="804" windowWidth="16116" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Client</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,69 @@
   </si>
   <si>
     <t>当前无法使用任何技能，技能均处于CD状态或者蓝量不足！</t>
+  </si>
+  <si>
+    <t>你当前没有这个装备，无法穿戴！</t>
+  </si>
+  <si>
+    <t>当前道具不是装备类型，无法穿戴！</t>
+  </si>
+  <si>
+    <t>当前装备的耐久度为0，无法穿戴！</t>
+  </si>
+  <si>
+    <t>你当前没有穿戴该道具！</t>
+  </si>
+  <si>
+    <t>你当前武器耐久度为0，无法使用，请修理后再重新使用！</t>
+  </si>
+  <si>
+    <t>修复武器完成</t>
+  </si>
+  <si>
+    <t>修复的道具不存在，请重新输入!</t>
+  </si>
+  <si>
+    <t>修复的道具不是装备类型，请重新输入！</t>
+  </si>
+  <si>
+    <t>扣除道具失败</t>
+  </si>
+  <si>
+    <t>你的背包中没有该道具</t>
+  </si>
+  <si>
+    <t>当前道具是装备类型，应该使用穿戴装备命令！</t>
+  </si>
+  <si>
+    <t>登录游戏成功！</t>
+  </si>
+  <si>
+    <t>你还没有创建该账号</t>
+  </si>
+  <si>
+    <t>你当前所在场景不存在该NPC</t>
+  </si>
+  <si>
+    <t>妲己：快来创建一个角色和我玩耍吧！</t>
+  </si>
+  <si>
+    <t>请你登录后，再进行操作！</t>
+  </si>
+  <si>
+    <t>你已有一个角色，不能再创建其他角色</t>
+  </si>
+  <si>
+    <t>你已在目标地图</t>
+  </si>
+  <si>
+    <t>你不能直接去到该地图</t>
+  </si>
+  <si>
+    <t>切换地图成功！</t>
+  </si>
+  <si>
+    <t>退出游戏成功！</t>
   </si>
 </sst>
 </file>
@@ -402,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -494,263 +557,171 @@
       <c r="B10">
         <v>1005</v>
       </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1006</v>
       </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1007</v>
       </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1008</v>
       </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1009</v>
       </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1010</v>
       </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1011</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1012</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1013</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1014</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1015</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>1016</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>1017</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>1018</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1019</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>1020</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1021</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>1022</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>1023</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1024</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
       <c r="B30">
         <v>1025</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61">
-        <v>1056</v>
+      <c r="C30" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
